--- a/data/trans_camb/P25_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,74</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 3,58</t>
+          <t>-9,47; 6,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 7,05</t>
+          <t>-6,38; 11,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 1,23</t>
+          <t>-7,72; 8,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 18,45</t>
+          <t>-11,35; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 0,05</t>
+          <t>-9,82; 5,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 11,24</t>
+          <t>-7,16; 10,83</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; 3,35</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 5,84</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 6,62</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>-7,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,39%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,12%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-19,49%</t>
+          <t>-8,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,28; 21,96</t>
+          <t>-45,17; 51,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,45; 41,26</t>
+          <t>-29,98; 82,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 8,33</t>
+          <t>-37,42; 67,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 117,26</t>
+          <t>-46,78; 25,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 0,08</t>
+          <t>-40,52; 37,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 63,2</t>
+          <t>-28,47; 67,89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-38,37; 23,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-27,17; 37,26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-26,03; 41,5</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 3,51</t>
+          <t>-13,35; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 4,88</t>
+          <t>-10,44; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 4,15</t>
+          <t>-9,25; 9,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 7,93</t>
+          <t>-7,75; 5,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,79</t>
+          <t>-6,32; 7,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 4,5</t>
+          <t>-3,64; 12,16</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 2,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 6,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 8,75</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-18,8%</t>
+          <t>-23,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,56%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>-16,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,62%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,35%</t>
+          <t>35,53%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-19,56%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,4; 28,06</t>
+          <t>-56,55; 24,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 41,6</t>
+          <t>-43,44; 46,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 35,36</t>
+          <t>-38,17; 60,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 64,25</t>
+          <t>-54,84; 68,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 13,91</t>
+          <t>-44,4; 93,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 32,74</t>
+          <t>-28,88; 150,73</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,85; 22,98</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-30,97; 50,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 69,35</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 13,86</t>
+          <t>-27,83; 19,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 17,19</t>
+          <t>-28,18; 19,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 15,25</t>
+          <t>-27,95; 21,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 14,81</t>
+          <t>-20,73; 11,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 10,52</t>
+          <t>-18,29; 15,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 11,13</t>
+          <t>-19,96; 18,53</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-18,09; 9,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-17,12; 12,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-18,2; 14,05</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-17,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>-12,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-22,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>-3,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>-2,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-19,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-11,86%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-8,15%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 84,19</t>
+          <t>-77,53; 193,7</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 101,14</t>
+          <t>-77,95; 198,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 118,87</t>
+          <t>-78,99; 203,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,37; 119,02</t>
+          <t>-80,48; 166,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 61,03</t>
+          <t>-74,19; 190,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 65,32</t>
+          <t>-82,74; 241,84</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-64,97; 83,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-60,33; 111,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-66,77; 114,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-2,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 1,52</t>
+          <t>-8,9; 3,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,12</t>
+          <t>-5,45; 6,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,16</t>
+          <t>-6,0; 7,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 10,44</t>
+          <t>-7,96; 1,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -0,02</t>
+          <t>-6,61; 4,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,96</t>
+          <t>-3,02; 8,67</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 0,65</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-4,19; 3,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 5,13</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-15,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,22%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>-18,39%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-16,54%</t>
+          <t>-3,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,79; 9,26</t>
+          <t>-41,71; 23,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 25,89</t>
+          <t>-26,31; 42,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,82; 7,88</t>
+          <t>-28,45; 48,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 64,56</t>
+          <t>-41,28; 14,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,62; -0,07</t>
+          <t>-33,84; 34,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 28,32</t>
+          <t>-17,31; 63,07</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-34,7; 4,93</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-22,45; 22,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,29; 33,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
